--- a/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/pasman_gwas_2018.xlsx
+++ b/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/pasman_gwas_2018.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f99f7067dc2a9a5/Documents/R/Working Directory/Data_Science_MSc/Dissertation_Bayes_MR/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B3428A77A1ACE24D97EF53C86B2955508EDD0EC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DCD5E3E-2EA7-47F7-A58F-CB9534A7BCF6}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_B3428A77A1ACE24D97EF53C86B2955508EDD0EC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71AE25E6-36DB-48CF-8735-9B5BFAFAABE6}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS7" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="216">
   <si>
     <t>Exposure</t>
   </si>
@@ -687,12 +688,57 @@
   <si>
     <t>Table S7. SNPs included in the genetic instruments used for bidirectional two-sample Mendelian randomization analyses between lifetime cannabis use and schizophrenia risk/ liability</t>
   </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Study_Ref</t>
+  </si>
+  <si>
+    <t>Study_DOI</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Reported_Measure</t>
+  </si>
+  <si>
+    <t>Coeff_G_X</t>
+  </si>
+  <si>
+    <t>Coeff_G_X_SE</t>
+  </si>
+  <si>
+    <t>Coeff_G_Y</t>
+  </si>
+  <si>
+    <t>Coeff_G_Y_SE</t>
+  </si>
+  <si>
+    <t>Pasman et al</t>
+  </si>
+  <si>
+    <t>[@pasman_gwas_2018]</t>
+  </si>
+  <si>
+    <t>10.1038/s41593-018-0206-1</t>
+  </si>
+  <si>
+    <t>Liability to Schizophrenia</t>
+  </si>
+  <si>
+    <t>Cannabis Use</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -751,6 +797,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -913,6 +965,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1180,9 +1236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L79" sqref="L79:L187"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79:L187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7382,4 +7438,3870 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281273FA-A74B-4484-89ED-60EAB234AD2E}">
+  <dimension ref="A1:K110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7">
+        <v>-0.03</v>
+      </c>
+      <c r="I7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J7">
+        <v>-0.03</v>
+      </c>
+      <c r="K7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J9">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10">
+        <v>-0.03</v>
+      </c>
+      <c r="I10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="I13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14">
+        <v>-0.03</v>
+      </c>
+      <c r="I14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J14">
+        <v>-0.02</v>
+      </c>
+      <c r="K14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15">
+        <v>-0.03</v>
+      </c>
+      <c r="I15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J15">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="K15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H16">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="I16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J16">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="K16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="I17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="K17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J18">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J19">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="K19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J21">
+        <v>-2E-3</v>
+      </c>
+      <c r="K21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="I22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J22">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="I23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J23">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="K23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J24">
+        <v>-2E-3</v>
+      </c>
+      <c r="K24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J25">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="K25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="I26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J26">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="K26">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.01</v>
+      </c>
+      <c r="J27">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J28">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>0.01</v>
+      </c>
+      <c r="K29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J30">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="K30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="I31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J31">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="K31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="I32">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J32">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K32">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33">
+        <v>-0.03</v>
+      </c>
+      <c r="I33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J33">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="K33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K34">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="I35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J35">
+        <v>-0.02</v>
+      </c>
+      <c r="K35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I36">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J36">
+        <v>0.01</v>
+      </c>
+      <c r="K36">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H37">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="I37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J37">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="K37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I38">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K38">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I39">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J39">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K39">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" t="s">
+        <v>215</v>
+      </c>
+      <c r="H40">
+        <v>-0.04</v>
+      </c>
+      <c r="I40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J40">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K40">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="I41">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J41">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" t="s">
+        <v>215</v>
+      </c>
+      <c r="H42">
+        <v>-0.03</v>
+      </c>
+      <c r="I42">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J42">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="K42">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>215</v>
+      </c>
+      <c r="H43">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K43">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" t="s">
+        <v>215</v>
+      </c>
+      <c r="H44">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I44">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J44">
+        <v>-0.01</v>
+      </c>
+      <c r="K44">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I45">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J45">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K45">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I46">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J46">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="K46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" t="s">
+        <v>215</v>
+      </c>
+      <c r="H47">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="I47">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J47">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K47">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48">
+        <v>0.03</v>
+      </c>
+      <c r="I48">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J48">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K48">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="I49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J49">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K49">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="I50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J50">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="K50">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51">
+        <v>-0.03</v>
+      </c>
+      <c r="I51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J51">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K51">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" t="s">
+        <v>215</v>
+      </c>
+      <c r="H52">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="I52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J52">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="K52">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53">
+        <v>-0.03</v>
+      </c>
+      <c r="I53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K53">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" t="s">
+        <v>214</v>
+      </c>
+      <c r="F54" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H54">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="I54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J54">
+        <v>0.02</v>
+      </c>
+      <c r="K54">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="I55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J55">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K55">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" t="s">
+        <v>215</v>
+      </c>
+      <c r="H56">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="I56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J56">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K56">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E57" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J57">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K57">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" t="s">
+        <v>215</v>
+      </c>
+      <c r="H58">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="I58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J58">
+        <v>0.02</v>
+      </c>
+      <c r="K58">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J59">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="K59">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" t="s">
+        <v>215</v>
+      </c>
+      <c r="H60">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I60">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J60">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K60">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E61" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="I61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J61">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K61">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>213</v>
+      </c>
+      <c r="E62" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" t="s">
+        <v>148</v>
+      </c>
+      <c r="G62" t="s">
+        <v>215</v>
+      </c>
+      <c r="H62">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="I62">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J62">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K62">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" t="s">
+        <v>215</v>
+      </c>
+      <c r="H63">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I63">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J63">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="K63">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" t="s">
+        <v>215</v>
+      </c>
+      <c r="H64">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="I64">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J64">
+        <v>-0.01</v>
+      </c>
+      <c r="K64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" t="s">
+        <v>215</v>
+      </c>
+      <c r="H65">
+        <v>0.03</v>
+      </c>
+      <c r="I65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J65">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K65">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" t="s">
+        <v>215</v>
+      </c>
+      <c r="H66">
+        <v>0.03</v>
+      </c>
+      <c r="I66">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J66">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K66">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" t="s">
+        <v>215</v>
+      </c>
+      <c r="H67">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="I67">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J67">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="K67">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F68" t="s">
+        <v>154</v>
+      </c>
+      <c r="G68" t="s">
+        <v>215</v>
+      </c>
+      <c r="H68">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I68">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J68">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K68">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" t="s">
+        <v>215</v>
+      </c>
+      <c r="H69">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="I69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J69">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="K69">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I70">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" t="s">
+        <v>157</v>
+      </c>
+      <c r="G71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H71">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I71">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J71">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K71">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" t="s">
+        <v>215</v>
+      </c>
+      <c r="H72">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="I72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J72">
+        <v>-0.02</v>
+      </c>
+      <c r="K72">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" t="s">
+        <v>215</v>
+      </c>
+      <c r="H73">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I73">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J73">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="K73">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G74" t="s">
+        <v>215</v>
+      </c>
+      <c r="H74">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="I74">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J74">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="K74">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" t="s">
+        <v>161</v>
+      </c>
+      <c r="G75" t="s">
+        <v>215</v>
+      </c>
+      <c r="H75">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="I75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J75">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="K75">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" t="s">
+        <v>215</v>
+      </c>
+      <c r="H76">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I76">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J76">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K76">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G77" t="s">
+        <v>215</v>
+      </c>
+      <c r="H77">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I77">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J77">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="K77">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" t="s">
+        <v>215</v>
+      </c>
+      <c r="H78">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I78">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J78">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="K78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" t="s">
+        <v>165</v>
+      </c>
+      <c r="G79" t="s">
+        <v>215</v>
+      </c>
+      <c r="H79">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="I79">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J79">
+        <v>-0.02</v>
+      </c>
+      <c r="K79">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" t="s">
+        <v>166</v>
+      </c>
+      <c r="G80" t="s">
+        <v>215</v>
+      </c>
+      <c r="H80">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="I80">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J80">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K80">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" t="s">
+        <v>167</v>
+      </c>
+      <c r="G81" t="s">
+        <v>215</v>
+      </c>
+      <c r="H81">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="I81">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J81">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K81">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" t="s">
+        <v>168</v>
+      </c>
+      <c r="G82" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="I82">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J82">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="K82">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" t="s">
+        <v>215</v>
+      </c>
+      <c r="H83">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="I83">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J83">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K83">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" t="s">
+        <v>214</v>
+      </c>
+      <c r="F84" t="s">
+        <v>170</v>
+      </c>
+      <c r="G84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H84">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="I84">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J84">
+        <v>-1E-3</v>
+      </c>
+      <c r="K84">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" t="s">
+        <v>215</v>
+      </c>
+      <c r="H85">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="I85">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J85">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K85">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" t="s">
+        <v>213</v>
+      </c>
+      <c r="E86" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" t="s">
+        <v>172</v>
+      </c>
+      <c r="G86" t="s">
+        <v>215</v>
+      </c>
+      <c r="H86">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I86">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J86">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K86">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87" t="s">
+        <v>213</v>
+      </c>
+      <c r="E87" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" t="s">
+        <v>215</v>
+      </c>
+      <c r="H87">
+        <v>-0.03</v>
+      </c>
+      <c r="I87">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J87">
+        <v>-2E-3</v>
+      </c>
+      <c r="K87">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" t="s">
+        <v>213</v>
+      </c>
+      <c r="E88" t="s">
+        <v>214</v>
+      </c>
+      <c r="F88" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" t="s">
+        <v>215</v>
+      </c>
+      <c r="H88">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I88">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J88">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="K88">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" t="s">
+        <v>175</v>
+      </c>
+      <c r="G89" t="s">
+        <v>215</v>
+      </c>
+      <c r="H89">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I89">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J89">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K89">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" t="s">
+        <v>176</v>
+      </c>
+      <c r="G90" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="I90">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J90">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K90">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>213</v>
+      </c>
+      <c r="E91" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" t="s">
+        <v>215</v>
+      </c>
+      <c r="H91">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I91">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J91">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K91">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" t="s">
+        <v>178</v>
+      </c>
+      <c r="G92" t="s">
+        <v>215</v>
+      </c>
+      <c r="H92">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="I92">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J92">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="K92">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" t="s">
+        <v>213</v>
+      </c>
+      <c r="E93" t="s">
+        <v>214</v>
+      </c>
+      <c r="F93" t="s">
+        <v>179</v>
+      </c>
+      <c r="G93" t="s">
+        <v>215</v>
+      </c>
+      <c r="H93">
+        <v>0.12</v>
+      </c>
+      <c r="I93">
+        <v>0.02</v>
+      </c>
+      <c r="J93">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="K93">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" t="s">
+        <v>211</v>
+      </c>
+      <c r="C94" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" t="s">
+        <v>214</v>
+      </c>
+      <c r="F94" t="s">
+        <v>180</v>
+      </c>
+      <c r="G94" t="s">
+        <v>215</v>
+      </c>
+      <c r="H94">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I94">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J94">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="K94">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" t="s">
+        <v>214</v>
+      </c>
+      <c r="F95" t="s">
+        <v>181</v>
+      </c>
+      <c r="G95" t="s">
+        <v>215</v>
+      </c>
+      <c r="H95">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="I95">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J95">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="K95">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" t="s">
+        <v>211</v>
+      </c>
+      <c r="C96" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" t="s">
+        <v>213</v>
+      </c>
+      <c r="E96" t="s">
+        <v>214</v>
+      </c>
+      <c r="F96" t="s">
+        <v>182</v>
+      </c>
+      <c r="G96" t="s">
+        <v>215</v>
+      </c>
+      <c r="H96">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I96">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J96">
+        <v>0.03</v>
+      </c>
+      <c r="K96">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" t="s">
+        <v>213</v>
+      </c>
+      <c r="E97" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" t="s">
+        <v>183</v>
+      </c>
+      <c r="G97" t="s">
+        <v>215</v>
+      </c>
+      <c r="H97">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I97">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J97">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K97">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" t="s">
+        <v>213</v>
+      </c>
+      <c r="E98" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" t="s">
+        <v>184</v>
+      </c>
+      <c r="G98" t="s">
+        <v>215</v>
+      </c>
+      <c r="H98">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I98">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J98">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K98">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" t="s">
+        <v>213</v>
+      </c>
+      <c r="E99" t="s">
+        <v>214</v>
+      </c>
+      <c r="F99" t="s">
+        <v>185</v>
+      </c>
+      <c r="G99" t="s">
+        <v>215</v>
+      </c>
+      <c r="H99">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I99">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J99">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="K99">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" t="s">
+        <v>186</v>
+      </c>
+      <c r="G100" t="s">
+        <v>215</v>
+      </c>
+      <c r="H100">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I100">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J100">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K100">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
+        <v>212</v>
+      </c>
+      <c r="D101" t="s">
+        <v>213</v>
+      </c>
+      <c r="E101" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" t="s">
+        <v>187</v>
+      </c>
+      <c r="G101" t="s">
+        <v>215</v>
+      </c>
+      <c r="H101">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I101">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J101">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K101">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" t="s">
+        <v>214</v>
+      </c>
+      <c r="F102" t="s">
+        <v>188</v>
+      </c>
+      <c r="G102" t="s">
+        <v>215</v>
+      </c>
+      <c r="H102">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I102">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J102">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="K102">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F103" t="s">
+        <v>189</v>
+      </c>
+      <c r="G103" t="s">
+        <v>215</v>
+      </c>
+      <c r="H103">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="I103">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J103">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K103">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" t="s">
+        <v>190</v>
+      </c>
+      <c r="G104" t="s">
+        <v>215</v>
+      </c>
+      <c r="H104">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="I104">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J104">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="K104">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" t="s">
+        <v>213</v>
+      </c>
+      <c r="E105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F105" t="s">
+        <v>191</v>
+      </c>
+      <c r="G105" t="s">
+        <v>215</v>
+      </c>
+      <c r="H105">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J105">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K105">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" t="s">
+        <v>213</v>
+      </c>
+      <c r="E106" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" t="s">
+        <v>192</v>
+      </c>
+      <c r="G106" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="I106">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J106">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="K106">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" t="s">
+        <v>213</v>
+      </c>
+      <c r="E107" t="s">
+        <v>214</v>
+      </c>
+      <c r="F107" t="s">
+        <v>193</v>
+      </c>
+      <c r="G107" t="s">
+        <v>215</v>
+      </c>
+      <c r="H107">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I107">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J107">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="K107">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" t="s">
+        <v>213</v>
+      </c>
+      <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
+        <v>194</v>
+      </c>
+      <c r="G108" t="s">
+        <v>215</v>
+      </c>
+      <c r="H108">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="I108">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J108">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="K108">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
+        <v>195</v>
+      </c>
+      <c r="G109" t="s">
+        <v>215</v>
+      </c>
+      <c r="H109">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="I109">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J109">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="K109">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" t="s">
+        <v>213</v>
+      </c>
+      <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
+        <v>196</v>
+      </c>
+      <c r="G110" t="s">
+        <v>215</v>
+      </c>
+      <c r="H110">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I110">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J110">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K110">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/pasman_gwas_2018.xlsx
+++ b/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/pasman_gwas_2018.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f99f7067dc2a9a5/Documents/R/Working Directory/Data_Science_MSc/Dissertation_Bayes_MR/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_B3428A77A1ACE24D97EF53C86B2955508EDD0EC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71AE25E6-36DB-48CF-8735-9B5BFAFAABE6}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B3428A77A1ACE24D97EF53C86B2955508EDD0EC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DCD5E3E-2EA7-47F7-A58F-CB9534A7BCF6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS7" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="201">
   <si>
     <t>Exposure</t>
   </si>
@@ -688,57 +687,12 @@
   <si>
     <t>Table S7. SNPs included in the genetic instruments used for bidirectional two-sample Mendelian randomization analyses between lifetime cannabis use and schizophrenia risk/ liability</t>
   </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Study_Ref</t>
-  </si>
-  <si>
-    <t>Study_DOI</t>
-  </si>
-  <si>
-    <t>Instrument</t>
-  </si>
-  <si>
-    <t>Reported_Measure</t>
-  </si>
-  <si>
-    <t>Coeff_G_X</t>
-  </si>
-  <si>
-    <t>Coeff_G_X_SE</t>
-  </si>
-  <si>
-    <t>Coeff_G_Y</t>
-  </si>
-  <si>
-    <t>Coeff_G_Y_SE</t>
-  </si>
-  <si>
-    <t>Pasman et al</t>
-  </si>
-  <si>
-    <t>[@pasman_gwas_2018]</t>
-  </si>
-  <si>
-    <t>10.1038/s41593-018-0206-1</t>
-  </si>
-  <si>
-    <t>Liability to Schizophrenia</t>
-  </si>
-  <si>
-    <t>Cannabis Use</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -797,12 +751,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -965,10 +913,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1236,9 +1180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79:L187"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L79" sqref="L79:L187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7438,3870 +7382,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281273FA-A74B-4484-89ED-60EAB234AD2E}">
-  <dimension ref="A1:K110"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K110"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J3">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="K3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H5">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J5">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="K5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H6">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J6">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7">
-        <v>-0.03</v>
-      </c>
-      <c r="I7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J7">
-        <v>-0.03</v>
-      </c>
-      <c r="K7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K8">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H9">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J9">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="K9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10">
-        <v>-0.03</v>
-      </c>
-      <c r="I10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11">
-        <v>3.9E-2</v>
-      </c>
-      <c r="I11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H12">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="K12">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13">
-        <v>-4.2999999999999997E-2</v>
-      </c>
-      <c r="I13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J13">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14">
-        <v>-0.03</v>
-      </c>
-      <c r="I14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J14">
-        <v>-0.02</v>
-      </c>
-      <c r="K14">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" t="s">
-        <v>215</v>
-      </c>
-      <c r="H15">
-        <v>-0.03</v>
-      </c>
-      <c r="I15">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J15">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="K15">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" t="s">
-        <v>215</v>
-      </c>
-      <c r="H16">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="I16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J16">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="K16">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" t="s">
-        <v>215</v>
-      </c>
-      <c r="H17">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="I17">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J17">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="K17">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" t="s">
-        <v>214</v>
-      </c>
-      <c r="F18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="I18">
-        <v>1.2E-2</v>
-      </c>
-      <c r="J18">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="K18">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="I19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J19">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="K19">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I20">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J20">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K20">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I21">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J21">
-        <v>-2E-3</v>
-      </c>
-      <c r="K21">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="I22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J22">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="K22">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="I23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J23">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-      <c r="K23">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" t="s">
-        <v>215</v>
-      </c>
-      <c r="H24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I24">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J24">
-        <v>-2E-3</v>
-      </c>
-      <c r="K24">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>210</v>
-      </c>
-      <c r="B25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I25">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J25">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="K25">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" t="s">
-        <v>214</v>
-      </c>
-      <c r="F26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="I26">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J26">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="K26">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" t="s">
-        <v>215</v>
-      </c>
-      <c r="H27">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="I27">
-        <v>0.01</v>
-      </c>
-      <c r="J27">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K27">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I28">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J28">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K28">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I29">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J29">
-        <v>0.01</v>
-      </c>
-      <c r="K29">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C30" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I30">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J30">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="K30">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="I31">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J31">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="K31">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="I32">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J32">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="K32">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33">
-        <v>-0.03</v>
-      </c>
-      <c r="I33">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J33">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="K33">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>210</v>
-      </c>
-      <c r="B34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" t="s">
-        <v>215</v>
-      </c>
-      <c r="H34">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I34">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J34">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K34">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="I35">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J35">
-        <v>-0.02</v>
-      </c>
-      <c r="K35">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="I36">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J36">
-        <v>0.01</v>
-      </c>
-      <c r="K36">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37" t="s">
-        <v>215</v>
-      </c>
-      <c r="H37">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="I37">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J37">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="K37">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="I38">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J38">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="K38">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" t="s">
-        <v>215</v>
-      </c>
-      <c r="H39">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I39">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J39">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K39">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" t="s">
-        <v>213</v>
-      </c>
-      <c r="E40" t="s">
-        <v>214</v>
-      </c>
-      <c r="F40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40">
-        <v>-0.04</v>
-      </c>
-      <c r="I40">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J40">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K40">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" t="s">
-        <v>214</v>
-      </c>
-      <c r="F41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" t="s">
-        <v>215</v>
-      </c>
-      <c r="H41">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="I41">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J41">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="K41">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" t="s">
-        <v>214</v>
-      </c>
-      <c r="F42" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" t="s">
-        <v>215</v>
-      </c>
-      <c r="H42">
-        <v>-0.03</v>
-      </c>
-      <c r="I42">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J42">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="K42">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>210</v>
-      </c>
-      <c r="B43" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" t="s">
-        <v>215</v>
-      </c>
-      <c r="H43">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I43">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J43">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K43">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" t="s">
-        <v>213</v>
-      </c>
-      <c r="E44" t="s">
-        <v>214</v>
-      </c>
-      <c r="F44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" t="s">
-        <v>215</v>
-      </c>
-      <c r="H44">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I44">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J44">
-        <v>-0.01</v>
-      </c>
-      <c r="K44">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H45">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I45">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J45">
-        <v>1.2E-2</v>
-      </c>
-      <c r="K45">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" t="s">
-        <v>215</v>
-      </c>
-      <c r="H46">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I46">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J46">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="K46">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B47" t="s">
-        <v>211</v>
-      </c>
-      <c r="C47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" t="s">
-        <v>214</v>
-      </c>
-      <c r="F47" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" t="s">
-        <v>215</v>
-      </c>
-      <c r="H47">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="I47">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J47">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K47">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" t="s">
-        <v>214</v>
-      </c>
-      <c r="F48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" t="s">
-        <v>215</v>
-      </c>
-      <c r="H48">
-        <v>0.03</v>
-      </c>
-      <c r="I48">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J48">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="K48">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B49" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49" t="s">
-        <v>214</v>
-      </c>
-      <c r="F49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="I49">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J49">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K49">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" t="s">
-        <v>213</v>
-      </c>
-      <c r="E50" t="s">
-        <v>214</v>
-      </c>
-      <c r="F50" t="s">
-        <v>136</v>
-      </c>
-      <c r="G50" t="s">
-        <v>215</v>
-      </c>
-      <c r="H50">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="I50">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J50">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="K50">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>210</v>
-      </c>
-      <c r="B51" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" t="s">
-        <v>213</v>
-      </c>
-      <c r="E51" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" t="s">
-        <v>215</v>
-      </c>
-      <c r="H51">
-        <v>-0.03</v>
-      </c>
-      <c r="I51">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J51">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="K51">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" t="s">
-        <v>213</v>
-      </c>
-      <c r="E52" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" t="s">
-        <v>215</v>
-      </c>
-      <c r="H52">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="I52">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J52">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="K52">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" t="s">
-        <v>213</v>
-      </c>
-      <c r="E53" t="s">
-        <v>214</v>
-      </c>
-      <c r="F53" t="s">
-        <v>139</v>
-      </c>
-      <c r="G53" t="s">
-        <v>215</v>
-      </c>
-      <c r="H53">
-        <v>-0.03</v>
-      </c>
-      <c r="I53">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J53">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K53">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" t="s">
-        <v>213</v>
-      </c>
-      <c r="E54" t="s">
-        <v>214</v>
-      </c>
-      <c r="F54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" t="s">
-        <v>215</v>
-      </c>
-      <c r="H54">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="I54">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J54">
-        <v>0.02</v>
-      </c>
-      <c r="K54">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>210</v>
-      </c>
-      <c r="B55" t="s">
-        <v>211</v>
-      </c>
-      <c r="C55" t="s">
-        <v>212</v>
-      </c>
-      <c r="D55" t="s">
-        <v>213</v>
-      </c>
-      <c r="E55" t="s">
-        <v>214</v>
-      </c>
-      <c r="F55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" t="s">
-        <v>215</v>
-      </c>
-      <c r="H55">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="I55">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J55">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="K55">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>210</v>
-      </c>
-      <c r="B56" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" t="s">
-        <v>214</v>
-      </c>
-      <c r="F56" t="s">
-        <v>142</v>
-      </c>
-      <c r="G56" t="s">
-        <v>215</v>
-      </c>
-      <c r="H56">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="I56">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J56">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K56">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" t="s">
-        <v>213</v>
-      </c>
-      <c r="E57" t="s">
-        <v>214</v>
-      </c>
-      <c r="F57" t="s">
-        <v>143</v>
-      </c>
-      <c r="G57" t="s">
-        <v>215</v>
-      </c>
-      <c r="H57">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I57">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J57">
-        <v>3.1E-2</v>
-      </c>
-      <c r="K57">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>210</v>
-      </c>
-      <c r="B58" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" t="s">
-        <v>212</v>
-      </c>
-      <c r="D58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E58" t="s">
-        <v>214</v>
-      </c>
-      <c r="F58" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" t="s">
-        <v>215</v>
-      </c>
-      <c r="H58">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="I58">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J58">
-        <v>0.02</v>
-      </c>
-      <c r="K58">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" t="s">
-        <v>213</v>
-      </c>
-      <c r="E59" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" t="s">
-        <v>145</v>
-      </c>
-      <c r="G59" t="s">
-        <v>215</v>
-      </c>
-      <c r="H59">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I59">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J59">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="K59">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E60" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" t="s">
-        <v>146</v>
-      </c>
-      <c r="G60" t="s">
-        <v>215</v>
-      </c>
-      <c r="H60">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I60">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J60">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="K60">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>210</v>
-      </c>
-      <c r="B61" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E61" t="s">
-        <v>214</v>
-      </c>
-      <c r="F61" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" t="s">
-        <v>215</v>
-      </c>
-      <c r="H61">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="I61">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J61">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="K61">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>210</v>
-      </c>
-      <c r="B62" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" t="s">
-        <v>213</v>
-      </c>
-      <c r="E62" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" t="s">
-        <v>148</v>
-      </c>
-      <c r="G62" t="s">
-        <v>215</v>
-      </c>
-      <c r="H62">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="I62">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J62">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="K62">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>210</v>
-      </c>
-      <c r="B63" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" t="s">
-        <v>213</v>
-      </c>
-      <c r="E63" t="s">
-        <v>214</v>
-      </c>
-      <c r="F63" t="s">
-        <v>149</v>
-      </c>
-      <c r="G63" t="s">
-        <v>215</v>
-      </c>
-      <c r="H63">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I63">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J63">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="K63">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" t="s">
-        <v>213</v>
-      </c>
-      <c r="E64" t="s">
-        <v>214</v>
-      </c>
-      <c r="F64" t="s">
-        <v>150</v>
-      </c>
-      <c r="G64" t="s">
-        <v>215</v>
-      </c>
-      <c r="H64">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="I64">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J64">
-        <v>-0.01</v>
-      </c>
-      <c r="K64">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" t="s">
-        <v>213</v>
-      </c>
-      <c r="E65" t="s">
-        <v>214</v>
-      </c>
-      <c r="F65" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" t="s">
-        <v>215</v>
-      </c>
-      <c r="H65">
-        <v>0.03</v>
-      </c>
-      <c r="I65">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J65">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K65">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>210</v>
-      </c>
-      <c r="B66" t="s">
-        <v>211</v>
-      </c>
-      <c r="C66" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" t="s">
-        <v>213</v>
-      </c>
-      <c r="E66" t="s">
-        <v>214</v>
-      </c>
-      <c r="F66" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" t="s">
-        <v>215</v>
-      </c>
-      <c r="H66">
-        <v>0.03</v>
-      </c>
-      <c r="I66">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J66">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="K66">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" t="s">
-        <v>213</v>
-      </c>
-      <c r="E67" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67" t="s">
-        <v>215</v>
-      </c>
-      <c r="H67">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="I67">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J67">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="K67">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>210</v>
-      </c>
-      <c r="B68" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" t="s">
-        <v>213</v>
-      </c>
-      <c r="E68" t="s">
-        <v>214</v>
-      </c>
-      <c r="F68" t="s">
-        <v>154</v>
-      </c>
-      <c r="G68" t="s">
-        <v>215</v>
-      </c>
-      <c r="H68">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I68">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J68">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="K68">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" t="s">
-        <v>212</v>
-      </c>
-      <c r="D69" t="s">
-        <v>213</v>
-      </c>
-      <c r="E69" t="s">
-        <v>214</v>
-      </c>
-      <c r="F69" t="s">
-        <v>155</v>
-      </c>
-      <c r="G69" t="s">
-        <v>215</v>
-      </c>
-      <c r="H69">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="I69">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J69">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="K69">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>210</v>
-      </c>
-      <c r="B70" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G70" t="s">
-        <v>215</v>
-      </c>
-      <c r="H70">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I70">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" t="s">
-        <v>213</v>
-      </c>
-      <c r="E71" t="s">
-        <v>214</v>
-      </c>
-      <c r="F71" t="s">
-        <v>157</v>
-      </c>
-      <c r="G71" t="s">
-        <v>215</v>
-      </c>
-      <c r="H71">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I71">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J71">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K71">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" t="s">
-        <v>211</v>
-      </c>
-      <c r="C72" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" t="s">
-        <v>213</v>
-      </c>
-      <c r="E72" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" t="s">
-        <v>158</v>
-      </c>
-      <c r="G72" t="s">
-        <v>215</v>
-      </c>
-      <c r="H72">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="I72">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J72">
-        <v>-0.02</v>
-      </c>
-      <c r="K72">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>210</v>
-      </c>
-      <c r="B73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" t="s">
-        <v>159</v>
-      </c>
-      <c r="G73" t="s">
-        <v>215</v>
-      </c>
-      <c r="H73">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I73">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J73">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="K73">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>210</v>
-      </c>
-      <c r="B74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C74" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" t="s">
-        <v>213</v>
-      </c>
-      <c r="E74" t="s">
-        <v>214</v>
-      </c>
-      <c r="F74" t="s">
-        <v>160</v>
-      </c>
-      <c r="G74" t="s">
-        <v>215</v>
-      </c>
-      <c r="H74">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="I74">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J74">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="K74">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" t="s">
-        <v>213</v>
-      </c>
-      <c r="E75" t="s">
-        <v>214</v>
-      </c>
-      <c r="F75" t="s">
-        <v>161</v>
-      </c>
-      <c r="G75" t="s">
-        <v>215</v>
-      </c>
-      <c r="H75">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="I75">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J75">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="K75">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>210</v>
-      </c>
-      <c r="B76" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" t="s">
-        <v>213</v>
-      </c>
-      <c r="E76" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" t="s">
-        <v>162</v>
-      </c>
-      <c r="G76" t="s">
-        <v>215</v>
-      </c>
-      <c r="H76">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I76">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J76">
-        <v>1.9E-2</v>
-      </c>
-      <c r="K76">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>210</v>
-      </c>
-      <c r="B77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" t="s">
-        <v>213</v>
-      </c>
-      <c r="E77" t="s">
-        <v>214</v>
-      </c>
-      <c r="F77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G77" t="s">
-        <v>215</v>
-      </c>
-      <c r="H77">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I77">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J77">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="K77">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>210</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78" t="s">
-        <v>212</v>
-      </c>
-      <c r="D78" t="s">
-        <v>213</v>
-      </c>
-      <c r="E78" t="s">
-        <v>214</v>
-      </c>
-      <c r="F78" t="s">
-        <v>164</v>
-      </c>
-      <c r="G78" t="s">
-        <v>215</v>
-      </c>
-      <c r="H78">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I78">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J78">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="K78">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" t="s">
-        <v>213</v>
-      </c>
-      <c r="E79" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" t="s">
-        <v>165</v>
-      </c>
-      <c r="G79" t="s">
-        <v>215</v>
-      </c>
-      <c r="H79">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="I79">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J79">
-        <v>-0.02</v>
-      </c>
-      <c r="K79">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>210</v>
-      </c>
-      <c r="B80" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" t="s">
-        <v>212</v>
-      </c>
-      <c r="D80" t="s">
-        <v>213</v>
-      </c>
-      <c r="E80" t="s">
-        <v>214</v>
-      </c>
-      <c r="F80" t="s">
-        <v>166</v>
-      </c>
-      <c r="G80" t="s">
-        <v>215</v>
-      </c>
-      <c r="H80">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="I80">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J80">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="K80">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>210</v>
-      </c>
-      <c r="B81" t="s">
-        <v>211</v>
-      </c>
-      <c r="C81" t="s">
-        <v>212</v>
-      </c>
-      <c r="D81" t="s">
-        <v>213</v>
-      </c>
-      <c r="E81" t="s">
-        <v>214</v>
-      </c>
-      <c r="F81" t="s">
-        <v>167</v>
-      </c>
-      <c r="G81" t="s">
-        <v>215</v>
-      </c>
-      <c r="H81">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="I81">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J81">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K81">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B82" t="s">
-        <v>211</v>
-      </c>
-      <c r="C82" t="s">
-        <v>212</v>
-      </c>
-      <c r="D82" t="s">
-        <v>213</v>
-      </c>
-      <c r="E82" t="s">
-        <v>214</v>
-      </c>
-      <c r="F82" t="s">
-        <v>168</v>
-      </c>
-      <c r="G82" t="s">
-        <v>215</v>
-      </c>
-      <c r="H82">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="I82">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J82">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="K82">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B83" t="s">
-        <v>211</v>
-      </c>
-      <c r="C83" t="s">
-        <v>212</v>
-      </c>
-      <c r="D83" t="s">
-        <v>213</v>
-      </c>
-      <c r="E83" t="s">
-        <v>214</v>
-      </c>
-      <c r="F83" t="s">
-        <v>169</v>
-      </c>
-      <c r="G83" t="s">
-        <v>215</v>
-      </c>
-      <c r="H83">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="I83">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J83">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K83">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>210</v>
-      </c>
-      <c r="B84" t="s">
-        <v>211</v>
-      </c>
-      <c r="C84" t="s">
-        <v>212</v>
-      </c>
-      <c r="D84" t="s">
-        <v>213</v>
-      </c>
-      <c r="E84" t="s">
-        <v>214</v>
-      </c>
-      <c r="F84" t="s">
-        <v>170</v>
-      </c>
-      <c r="G84" t="s">
-        <v>215</v>
-      </c>
-      <c r="H84">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-      <c r="I84">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J84">
-        <v>-1E-3</v>
-      </c>
-      <c r="K84">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>210</v>
-      </c>
-      <c r="B85" t="s">
-        <v>211</v>
-      </c>
-      <c r="C85" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" t="s">
-        <v>214</v>
-      </c>
-      <c r="F85" t="s">
-        <v>171</v>
-      </c>
-      <c r="G85" t="s">
-        <v>215</v>
-      </c>
-      <c r="H85">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="I85">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J85">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="K85">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>210</v>
-      </c>
-      <c r="B86" t="s">
-        <v>211</v>
-      </c>
-      <c r="C86" t="s">
-        <v>212</v>
-      </c>
-      <c r="D86" t="s">
-        <v>213</v>
-      </c>
-      <c r="E86" t="s">
-        <v>214</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
-      </c>
-      <c r="G86" t="s">
-        <v>215</v>
-      </c>
-      <c r="H86">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I86">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J86">
-        <v>2.7E-2</v>
-      </c>
-      <c r="K86">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>210</v>
-      </c>
-      <c r="B87" t="s">
-        <v>211</v>
-      </c>
-      <c r="C87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D87" t="s">
-        <v>213</v>
-      </c>
-      <c r="E87" t="s">
-        <v>214</v>
-      </c>
-      <c r="F87" t="s">
-        <v>173</v>
-      </c>
-      <c r="G87" t="s">
-        <v>215</v>
-      </c>
-      <c r="H87">
-        <v>-0.03</v>
-      </c>
-      <c r="I87">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J87">
-        <v>-2E-3</v>
-      </c>
-      <c r="K87">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>210</v>
-      </c>
-      <c r="B88" t="s">
-        <v>211</v>
-      </c>
-      <c r="C88" t="s">
-        <v>212</v>
-      </c>
-      <c r="D88" t="s">
-        <v>213</v>
-      </c>
-      <c r="E88" t="s">
-        <v>214</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
-      </c>
-      <c r="G88" t="s">
-        <v>215</v>
-      </c>
-      <c r="H88">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I88">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J88">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="K88">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89" t="s">
-        <v>211</v>
-      </c>
-      <c r="C89" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" t="s">
-        <v>213</v>
-      </c>
-      <c r="E89" t="s">
-        <v>214</v>
-      </c>
-      <c r="F89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G89" t="s">
-        <v>215</v>
-      </c>
-      <c r="H89">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I89">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J89">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K89">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>210</v>
-      </c>
-      <c r="B90" t="s">
-        <v>211</v>
-      </c>
-      <c r="C90" t="s">
-        <v>212</v>
-      </c>
-      <c r="D90" t="s">
-        <v>213</v>
-      </c>
-      <c r="E90" t="s">
-        <v>214</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
-      </c>
-      <c r="G90" t="s">
-        <v>215</v>
-      </c>
-      <c r="H90">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="I90">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J90">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="K90">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>210</v>
-      </c>
-      <c r="B91" t="s">
-        <v>211</v>
-      </c>
-      <c r="C91" t="s">
-        <v>212</v>
-      </c>
-      <c r="D91" t="s">
-        <v>213</v>
-      </c>
-      <c r="E91" t="s">
-        <v>214</v>
-      </c>
-      <c r="F91" t="s">
-        <v>177</v>
-      </c>
-      <c r="G91" t="s">
-        <v>215</v>
-      </c>
-      <c r="H91">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I91">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J91">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K91">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>210</v>
-      </c>
-      <c r="B92" t="s">
-        <v>211</v>
-      </c>
-      <c r="C92" t="s">
-        <v>212</v>
-      </c>
-      <c r="D92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E92" t="s">
-        <v>214</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
-      </c>
-      <c r="G92" t="s">
-        <v>215</v>
-      </c>
-      <c r="H92">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="I92">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J92">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="K92">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>210</v>
-      </c>
-      <c r="B93" t="s">
-        <v>211</v>
-      </c>
-      <c r="C93" t="s">
-        <v>212</v>
-      </c>
-      <c r="D93" t="s">
-        <v>213</v>
-      </c>
-      <c r="E93" t="s">
-        <v>214</v>
-      </c>
-      <c r="F93" t="s">
-        <v>179</v>
-      </c>
-      <c r="G93" t="s">
-        <v>215</v>
-      </c>
-      <c r="H93">
-        <v>0.12</v>
-      </c>
-      <c r="I93">
-        <v>0.02</v>
-      </c>
-      <c r="J93">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="K93">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>210</v>
-      </c>
-      <c r="B94" t="s">
-        <v>211</v>
-      </c>
-      <c r="C94" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" t="s">
-        <v>213</v>
-      </c>
-      <c r="E94" t="s">
-        <v>214</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
-      </c>
-      <c r="G94" t="s">
-        <v>215</v>
-      </c>
-      <c r="H94">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I94">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J94">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="K94">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>210</v>
-      </c>
-      <c r="B95" t="s">
-        <v>211</v>
-      </c>
-      <c r="C95" t="s">
-        <v>212</v>
-      </c>
-      <c r="D95" t="s">
-        <v>213</v>
-      </c>
-      <c r="E95" t="s">
-        <v>214</v>
-      </c>
-      <c r="F95" t="s">
-        <v>181</v>
-      </c>
-      <c r="G95" t="s">
-        <v>215</v>
-      </c>
-      <c r="H95">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="I95">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J95">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="K95">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>210</v>
-      </c>
-      <c r="B96" t="s">
-        <v>211</v>
-      </c>
-      <c r="C96" t="s">
-        <v>212</v>
-      </c>
-      <c r="D96" t="s">
-        <v>213</v>
-      </c>
-      <c r="E96" t="s">
-        <v>214</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G96" t="s">
-        <v>215</v>
-      </c>
-      <c r="H96">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I96">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J96">
-        <v>0.03</v>
-      </c>
-      <c r="K96">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>210</v>
-      </c>
-      <c r="B97" t="s">
-        <v>211</v>
-      </c>
-      <c r="C97" t="s">
-        <v>212</v>
-      </c>
-      <c r="D97" t="s">
-        <v>213</v>
-      </c>
-      <c r="E97" t="s">
-        <v>214</v>
-      </c>
-      <c r="F97" t="s">
-        <v>183</v>
-      </c>
-      <c r="G97" t="s">
-        <v>215</v>
-      </c>
-      <c r="H97">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I97">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J97">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="K97">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" t="s">
-        <v>211</v>
-      </c>
-      <c r="C98" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" t="s">
-        <v>213</v>
-      </c>
-      <c r="E98" t="s">
-        <v>214</v>
-      </c>
-      <c r="F98" t="s">
-        <v>184</v>
-      </c>
-      <c r="G98" t="s">
-        <v>215</v>
-      </c>
-      <c r="H98">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="I98">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J98">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K98">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>210</v>
-      </c>
-      <c r="B99" t="s">
-        <v>211</v>
-      </c>
-      <c r="C99" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" t="s">
-        <v>213</v>
-      </c>
-      <c r="E99" t="s">
-        <v>214</v>
-      </c>
-      <c r="F99" t="s">
-        <v>185</v>
-      </c>
-      <c r="G99" t="s">
-        <v>215</v>
-      </c>
-      <c r="H99">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="I99">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J99">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="K99">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>210</v>
-      </c>
-      <c r="B100" t="s">
-        <v>211</v>
-      </c>
-      <c r="C100" t="s">
-        <v>212</v>
-      </c>
-      <c r="D100" t="s">
-        <v>213</v>
-      </c>
-      <c r="E100" t="s">
-        <v>214</v>
-      </c>
-      <c r="F100" t="s">
-        <v>186</v>
-      </c>
-      <c r="G100" t="s">
-        <v>215</v>
-      </c>
-      <c r="H100">
-        <v>6.3E-2</v>
-      </c>
-      <c r="I100">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="J100">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K100">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>210</v>
-      </c>
-      <c r="B101" t="s">
-        <v>211</v>
-      </c>
-      <c r="C101" t="s">
-        <v>212</v>
-      </c>
-      <c r="D101" t="s">
-        <v>213</v>
-      </c>
-      <c r="E101" t="s">
-        <v>214</v>
-      </c>
-      <c r="F101" t="s">
-        <v>187</v>
-      </c>
-      <c r="G101" t="s">
-        <v>215</v>
-      </c>
-      <c r="H101">
-        <v>3.9E-2</v>
-      </c>
-      <c r="I101">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J101">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="K101">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>210</v>
-      </c>
-      <c r="B102" t="s">
-        <v>211</v>
-      </c>
-      <c r="C102" t="s">
-        <v>212</v>
-      </c>
-      <c r="D102" t="s">
-        <v>213</v>
-      </c>
-      <c r="E102" t="s">
-        <v>214</v>
-      </c>
-      <c r="F102" t="s">
-        <v>188</v>
-      </c>
-      <c r="G102" t="s">
-        <v>215</v>
-      </c>
-      <c r="H102">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I102">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J102">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="K102">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" t="s">
-        <v>212</v>
-      </c>
-      <c r="D103" t="s">
-        <v>213</v>
-      </c>
-      <c r="E103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F103" t="s">
-        <v>189</v>
-      </c>
-      <c r="G103" t="s">
-        <v>215</v>
-      </c>
-      <c r="H103">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="I103">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J103">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="K103">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" t="s">
-        <v>212</v>
-      </c>
-      <c r="D104" t="s">
-        <v>213</v>
-      </c>
-      <c r="E104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F104" t="s">
-        <v>190</v>
-      </c>
-      <c r="G104" t="s">
-        <v>215</v>
-      </c>
-      <c r="H104">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="I104">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J104">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="K104">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>210</v>
-      </c>
-      <c r="B105" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105" t="s">
-        <v>212</v>
-      </c>
-      <c r="D105" t="s">
-        <v>213</v>
-      </c>
-      <c r="E105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F105" t="s">
-        <v>191</v>
-      </c>
-      <c r="G105" t="s">
-        <v>215</v>
-      </c>
-      <c r="H105">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I105">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J105">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K105">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" t="s">
-        <v>212</v>
-      </c>
-      <c r="D106" t="s">
-        <v>213</v>
-      </c>
-      <c r="E106" t="s">
-        <v>214</v>
-      </c>
-      <c r="F106" t="s">
-        <v>192</v>
-      </c>
-      <c r="G106" t="s">
-        <v>215</v>
-      </c>
-      <c r="H106">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="I106">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J106">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="K106">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" t="s">
-        <v>212</v>
-      </c>
-      <c r="D107" t="s">
-        <v>213</v>
-      </c>
-      <c r="E107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F107" t="s">
-        <v>193</v>
-      </c>
-      <c r="G107" t="s">
-        <v>215</v>
-      </c>
-      <c r="H107">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I107">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J107">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="K107">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" t="s">
-        <v>212</v>
-      </c>
-      <c r="D108" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" t="s">
-        <v>214</v>
-      </c>
-      <c r="F108" t="s">
-        <v>194</v>
-      </c>
-      <c r="G108" t="s">
-        <v>215</v>
-      </c>
-      <c r="H108">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="I108">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J108">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="K108">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>210</v>
-      </c>
-      <c r="B109" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" t="s">
-        <v>212</v>
-      </c>
-      <c r="D109" t="s">
-        <v>213</v>
-      </c>
-      <c r="E109" t="s">
-        <v>214</v>
-      </c>
-      <c r="F109" t="s">
-        <v>195</v>
-      </c>
-      <c r="G109" t="s">
-        <v>215</v>
-      </c>
-      <c r="H109">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="I109">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J109">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="K109">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>210</v>
-      </c>
-      <c r="B110" t="s">
-        <v>211</v>
-      </c>
-      <c r="C110" t="s">
-        <v>212</v>
-      </c>
-      <c r="D110" t="s">
-        <v>213</v>
-      </c>
-      <c r="E110" t="s">
-        <v>214</v>
-      </c>
-      <c r="F110" t="s">
-        <v>196</v>
-      </c>
-      <c r="G110" t="s">
-        <v>215</v>
-      </c>
-      <c r="H110">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I110">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J110">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K110">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>